--- a/Chain_Key/M5Stack-Chain-Key-通讯协议-V1.xlsx
+++ b/Chain_Key/M5Stack-Chain-Key-通讯协议-V1.xlsx
@@ -498,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +519,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -858,6 +870,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,7 +1208,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,115 +1220,115 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,10 +1390,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,94 +1405,91 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,7 +1816,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C19" sqref="C19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1873,12 +1900,20 @@
         <v>5</v>
       </c>
       <c r="I3" s="8">
-        <v>3</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="43">
+        <v>7</v>
+      </c>
+      <c r="K3" s="43">
+        <v>8</v>
+      </c>
+      <c r="L3" s="43">
+        <v>9</v>
+      </c>
+      <c r="M3" s="44">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:13">
       <c r="A4" s="11"/>
@@ -1934,13 +1969,13 @@
       <c r="F5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="46" t="s">
@@ -1952,19 +1987,19 @@
     </row>
     <row r="6" customFormat="1" ht="19" customHeight="1" spans="1:13">
       <c r="A6" s="16"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -2007,16 +2042,16 @@
       <c r="B8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -2035,19 +2070,19 @@
     </row>
     <row r="9" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A9" s="16"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -2092,16 +2127,16 @@
       <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="24" t="s">
@@ -2120,19 +2155,19 @@
     </row>
     <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A12" s="16"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="24" t="s">
@@ -2175,16 +2210,16 @@
       <c r="B14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
@@ -2203,19 +2238,19 @@
     </row>
     <row r="15" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A15" s="16"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="24" t="s">
@@ -2286,19 +2321,19 @@
     </row>
     <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:13">
       <c r="A18" s="16"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="24" t="s">
@@ -2341,16 +2376,16 @@
       <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2365,19 +2400,19 @@
     </row>
     <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A21" s="16"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="24" t="s">
@@ -2420,16 +2455,16 @@
       <c r="B23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="20" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="25" t="s">
@@ -2444,19 +2479,19 @@
     </row>
     <row r="24" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A24" s="16"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="20" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="24" t="s">
@@ -2499,16 +2534,16 @@
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -2523,19 +2558,19 @@
     </row>
     <row r="27" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A27" s="16"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="24" t="s">
@@ -2596,19 +2631,19 @@
     </row>
     <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A30" s="16"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
@@ -2649,16 +2684,16 @@
       <c r="B32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="20" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="25" t="s">
@@ -2673,19 +2708,19 @@
     </row>
     <row r="33" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A33" s="16"/>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="20" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="25" t="s">
@@ -2726,16 +2761,16 @@
       <c r="B35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="20" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="24" t="s">
@@ -2752,19 +2787,19 @@
     </row>
     <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A36" s="16"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>70</v>
       </c>
       <c r="G36" s="24" t="s">

--- a/Chain_Key/M5Stack-Chain-Key-通讯协议-V1.xlsx
+++ b/Chain_Key/M5Stack-Chain-Key-通讯协议-V1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="75">
   <si>
     <t>M5Stack Chain-Key Protocol</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Data1</t>
   </si>
   <si>
-    <t xml:space="preserve">data2 </t>
+    <t xml:space="preserve">Data2 </t>
   </si>
   <si>
     <t>Data3</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Data6</t>
+  </si>
+  <si>
+    <t>Data7</t>
   </si>
   <si>
     <t>设置rgb值</t>
@@ -297,17 +300,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="\ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="180" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1332,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1355,16 +1355,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1393,10 +1384,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,10 +1396,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,7 +1417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1450,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,19 +1459,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,7 +1804,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:M19"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1847,13 +1835,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1866,11 +1854,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42">
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39">
         <v>45583</v>
       </c>
     </row>
@@ -1884,956 +1872,958 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="40">
         <v>7</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="40">
         <v>8</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="40">
         <v>9</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="J5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="I6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" customFormat="1" ht="46" customHeight="1" spans="1:13">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="F9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" customFormat="1" ht="28" customHeight="1" spans="1:13">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="31" t="s">
+      <c r="D11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" customFormat="1" ht="46" customHeight="1" spans="1:13">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" customFormat="1" ht="55" customHeight="1" spans="1:13">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A8" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="C13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="E14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" customFormat="1" ht="32" customHeight="1" spans="1:13">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A18" s="13"/>
+      <c r="B18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" customFormat="1" ht="29" customHeight="1" spans="1:13">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="49"/>
-    </row>
-    <row r="9" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
+      <c r="D20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:13">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" customFormat="1" ht="22" customHeight="1" spans="1:13">
+      <c r="A23" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="C23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="30" customHeight="1" spans="1:13">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="49"/>
-    </row>
-    <row r="10" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="D26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A27" s="13"/>
+      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="49"/>
-    </row>
-    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="39" customHeight="1" spans="1:13">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A30" s="13"/>
+      <c r="B30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="C30" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="E30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="31" customHeight="1" spans="1:13">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="46"/>
+    </row>
+    <row r="32" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A32" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="45"/>
+    </row>
+    <row r="33" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="28" customHeight="1" spans="1:13">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A35" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="49"/>
-    </row>
-    <row r="13" customFormat="1" ht="55" customHeight="1" spans="1:13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="49"/>
-    </row>
-    <row r="15" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22" t="s">
+      <c r="E35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="45"/>
+    </row>
+    <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A36" s="13"/>
+      <c r="B36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="C36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" customFormat="1" ht="32" customHeight="1" spans="1:13">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="50"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A18" s="16"/>
-      <c r="B18" s="22" t="s">
+      <c r="E36" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="49"/>
-    </row>
-    <row r="19" customFormat="1" ht="29" customHeight="1" spans="1:13">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="50"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A20" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="49"/>
-    </row>
-    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:13">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="28" t="s">
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="50"/>
-    </row>
-    <row r="23" customFormat="1" ht="22" customHeight="1" spans="1:13">
-      <c r="A23" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="49"/>
-    </row>
-    <row r="24" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="50"/>
-    </row>
-    <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A26" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="49"/>
-    </row>
-    <row r="27" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A27" s="16"/>
-      <c r="B27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="39" customHeight="1" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="50"/>
-    </row>
-    <row r="29" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A30" s="16"/>
-      <c r="B30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="31" customHeight="1" spans="1:13">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="50"/>
-    </row>
-    <row r="32" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="49"/>
-    </row>
-    <row r="33" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="50"/>
-    </row>
-    <row r="35" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A35" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="49"/>
-    </row>
-    <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A36" s="16"/>
-      <c r="B36" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="49" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="37" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A37" s="26"/>
-      <c r="B37" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="52"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="48"/>
     </row>
     <row r="62" ht="13" customHeight="1"/>
     <row r="63" hidden="1"/>
